--- a/Отчёт/First-second version.xlsx
+++ b/Отчёт/First-second version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13CC8A-6078-42A3-8728-7C00C27BAADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20CA3D3-60BC-4018-AB09-FE675134AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15185,7 +15185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>

--- a/Отчёт/First-second version.xlsx
+++ b/Отчёт/First-second version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20CA3D3-60BC-4018-AB09-FE675134AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54313BC4-38B7-487E-BDBA-B727F6BBEDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="19">
   <si>
     <t>Mode</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>From 0 to 4</t>
-  </si>
-  <si>
-    <t>From 0 to 4025</t>
-  </si>
-  <si>
-    <t>From 0 to 3999</t>
   </si>
 </sst>
 </file>
@@ -15185,8 +15179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="N55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16350,7 +16344,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -17450,7 +17444,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>290</v>
@@ -17494,7 +17488,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>300</v>
